--- a/contest/Long Challenge/2018/progress.xlsx
+++ b/contest/Long Challenge/2018/progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="19545" windowHeight="8340"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="19545" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,16 +404,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/contest/Long Challenge/2018/progress.xlsx
+++ b/contest/Long Challenge/2018/progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="19545" windowHeight="8340"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="19545" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,11 +428,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/contest/Long Challenge/2018/progress.xlsx
+++ b/contest/Long Challenge/2018/progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="19545" windowHeight="8340"/>
+    <workbookView xWindow="4725" yWindow="0" windowWidth="19545" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,26 +440,32 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
